--- a/plottar/tabell_toppfas_GISdata.xlsx
+++ b/plottar/tabell_toppfas_GISdata.xlsx
@@ -426,7 +426,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mean lemming probability</t>
+          <t>lemming density</t>
         </is>
       </c>
       <c r="B4">
